--- a/Naming of HAC Clusters.xlsx
+++ b/Naming of HAC Clusters.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ab47948583586f6/Documents/DS 5230/Project Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\OneDrive\Documents\DS 5230\Project Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{E1DD9E2D-AC13-4A95-8B6E-0B3F1A65C010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07D24DFB-C892-4F4B-AAA5-D130DFCE8B18}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{E1DD9E2D-AC13-4A95-8B6E-0B3F1A65C010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EB49C4D-299B-41EF-B2FE-AFDEAFB62217}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FC83AB2-0A3B-42F4-8A31-CCFA93E5E22D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8FC83AB2-0A3B-42F4-8A31-CCFA93E5E22D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Cluster</t>
   </si>
@@ -166,6 +169,132 @@
   </si>
   <si>
     <t>Devout God Believers</t>
+  </si>
+  <si>
+    <t>fitnesscirclejerk</t>
+  </si>
+  <si>
+    <t>amoralcollection</t>
+  </si>
+  <si>
+    <t>switcharoo</t>
+  </si>
+  <si>
+    <t>justfuckmyshitup</t>
+  </si>
+  <si>
+    <t>tolkienfans</t>
+  </si>
+  <si>
+    <t>pics</t>
+  </si>
+  <si>
+    <t>circlebroke</t>
+  </si>
+  <si>
+    <t>agarioscripts</t>
+  </si>
+  <si>
+    <t>retiredsubreddit</t>
+  </si>
+  <si>
+    <t>wtfdidijustread</t>
+  </si>
+  <si>
+    <t>elsamasterrace</t>
+  </si>
+  <si>
+    <t>unexpectedhamilton</t>
+  </si>
+  <si>
+    <t>bestof</t>
+  </si>
+  <si>
+    <t>programming</t>
+  </si>
+  <si>
+    <t>oneworldgovernment</t>
+  </si>
+  <si>
+    <t>fallingskies</t>
+  </si>
+  <si>
+    <t>relationships</t>
+  </si>
+  <si>
+    <t>beetlejuicing</t>
+  </si>
+  <si>
+    <t>exmormon</t>
+  </si>
+  <si>
+    <t>openelec</t>
+  </si>
+  <si>
+    <t>djiosmo</t>
+  </si>
+  <si>
+    <t>ajestuncon</t>
+  </si>
+  <si>
+    <t>teamearth</t>
+  </si>
+  <si>
+    <t>moviefunfacts</t>
+  </si>
+  <si>
+    <t>shin</t>
+  </si>
+  <si>
+    <t>plazaaragon</t>
+  </si>
+  <si>
+    <t>dogestarter</t>
+  </si>
+  <si>
+    <t>letsdub</t>
+  </si>
+  <si>
+    <t>vocalists</t>
+  </si>
+  <si>
+    <t>nocrychallenge</t>
+  </si>
+  <si>
+    <t>the_scoundrealm</t>
+  </si>
+  <si>
+    <t>complexsystems</t>
+  </si>
+  <si>
+    <t>pensacolabeer</t>
+  </si>
+  <si>
+    <t>misconceptionfixer</t>
+  </si>
+  <si>
+    <t>wrestlingpod</t>
+  </si>
+  <si>
+    <t>nightshade</t>
+  </si>
+  <si>
+    <t>originalerror</t>
+  </si>
+  <si>
+    <t>ihscout</t>
+  </si>
+  <si>
+    <t>fakeid2</t>
+  </si>
+  <si>
+    <t>SOURCE_SUBREDDIT</t>
+  </si>
+  <si>
+    <t>kmeans_clusters_7</t>
+  </si>
+  <si>
+    <t>K-means</t>
   </si>
 </sst>
 </file>
@@ -701,7 +830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3D00FB-CC3F-4C04-BA28-8444CB907324}">
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -901,4 +1032,441 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D42FFE6-365C-40BE-B58C-A86813992851}">
+  <dimension ref="C4:AW25"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AU22" sqref="AU22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="Y9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:49" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="15:32" x14ac:dyDescent="0.3">
+      <c r="AF17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="15:32" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="15:32" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641B5172-2A5B-40CA-B789-D92F386BE231}">
+  <dimension ref="A4:BK31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="AQ7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="AG10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="5:35" x14ac:dyDescent="0.3">
+      <c r="Q18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="5:35" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="5:35" x14ac:dyDescent="0.3">
+      <c r="AI20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="5:35" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="5:35" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBFD195-FDDE-4FFE-8F07-F2DFC10D4972}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>